--- a/TestWebApp/App_Data/Předávací protokol_V4 MAUR.xlsx
+++ b/TestWebApp/App_Data/Předávací protokol_V4 MAUR.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skok\Projects\_CNWP\db_dev\TestWebApp_1_debug\TestWebApp\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CBF50BC2-BF82-418B-A84A-BD5174FC2031}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FC8E5503-EB16-4CD5-9E87-4A23C20B830F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Gusto Karta" sheetId="2" r:id="rId1"/>
+    <sheet name="GUSTO KARTA" sheetId="2" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -1121,30 +1121,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="5fc6e77b-1a45-456b-992e-ca72560faced">
-      <UserInfo>
-        <DisplayName>Klein Michael</DisplayName>
-        <AccountId>12</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Urban Martin</DisplayName>
-        <AccountId>22</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Vohanková Johana</DisplayName>
-        <AccountId>15</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101004310E2C51F818845A80AEA305B288405" ma:contentTypeVersion="4" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="57b8b72c80770b1a46ec8236c98b2e67">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5fc6e77b-1a45-456b-992e-ca72560faced" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ee6d34a6106ef7788e112cb718237a2c" ns2:_="">
     <xsd:import namespace="5fc6e77b-1a45-456b-992e-ca72560faced"/>
@@ -1306,6 +1282,30 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="5fc6e77b-1a45-456b-992e-ca72560faced">
+      <UserInfo>
+        <DisplayName>Klein Michael</DisplayName>
+        <AccountId>12</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Urban Martin</DisplayName>
+        <AccountId>22</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Vohanková Johana</DisplayName>
+        <AccountId>15</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB421F7B-6738-471D-AD59-CB16519B1CB7}">
   <ds:schemaRefs>
@@ -1315,22 +1315,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{862F125E-FDB8-4E99-A7B3-21232F7215A5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="5fc6e77b-1a45-456b-992e-ca72560faced"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{934AD745-A588-4635-A63F-48AA7F3418DD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1346,4 +1330,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{862F125E-FDB8-4E99-A7B3-21232F7215A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="5fc6e77b-1a45-456b-992e-ca72560faced"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>